--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_attendance.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AF$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$484</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="G140" s="5" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="H140" s="5" t="inlineStr">
@@ -20048,7 +20048,7 @@
         </is>
       </c>
       <c r="I140" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J140" s="6" t="n">
         <v>13</v>
@@ -20063,22 +20063,22 @@
         <v>15</v>
       </c>
       <c r="N140" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P140" s="7" t="n">
         <v>15</v>
       </c>
       <c r="Q140" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R140" s="7" t="n">
         <v>1</v>
       </c>
       <c r="S140" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" s="7" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="G159" s="5" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="H159" s="5" t="inlineStr">
@@ -22708,7 +22708,7 @@
         </is>
       </c>
       <c r="I159" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J159" s="6" t="n">
         <v>13</v>
@@ -22723,22 +22723,22 @@
         <v>15</v>
       </c>
       <c r="N159" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O159" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P159" s="7" t="n">
         <v>15</v>
       </c>
       <c r="Q159" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R159" s="7" t="n">
         <v>1</v>
       </c>
       <c r="S159" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T159" s="7" t="inlineStr">
         <is>
@@ -23399,7 +23399,7 @@
       </c>
       <c r="G164" s="5" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="H164" s="5" t="inlineStr">
@@ -23408,7 +23408,7 @@
         </is>
       </c>
       <c r="I164" s="6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J164" s="6" t="n">
         <v>13</v>
@@ -23423,22 +23423,22 @@
         <v>15</v>
       </c>
       <c r="N164" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O164" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P164" s="7" t="n">
         <v>15</v>
       </c>
       <c r="Q164" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R164" s="7" t="n">
         <v>1</v>
       </c>
       <c r="S164" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T164" s="7" t="inlineStr">
         <is>
@@ -47458,7 +47458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:K484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -72223,12 +72223,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>211535</t>
+          <t>211439</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>احمد ركان محمد رشاد سليمان</t>
+          <t>عبد الرحمن سامح عبد العزيز منصور</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -72238,12 +72238,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>211535@med.asu.edu.eg</t>
+          <t>211439@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -72253,7 +72253,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
@@ -72263,7 +72263,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -72273,19 +72273,19 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>211537</t>
+          <t>211446</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>مريم محمد فوزى محمد سالم</t>
+          <t>ساره عبد الله محمد كمال عبد العزيز</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -72295,12 +72295,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>211537@med.asu.edu.eg</t>
+          <t>211446@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -72310,7 +72310,7 @@
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -72320,7 +72320,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -72330,19 +72330,19 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>211541</t>
+          <t>211410</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>بسمله محمد احمد حامد</t>
+          <t>جون مجدى ميخائيل سدراك</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -72352,12 +72352,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>211541@med.asu.edu.eg</t>
+          <t>211410@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -72367,7 +72367,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -72377,7 +72377,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -72387,19 +72387,19 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-3</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>211542</t>
+          <t>211535</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>رويدا محمد عبد الهادى محمود غازى</t>
+          <t>احمد ركان محمد رشاد سليمان</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -72414,7 +72414,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>211542@med.asu.edu.eg</t>
+          <t>211535@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -72451,12 +72451,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>211543</t>
+          <t>211537</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>عبد العزيز بهاءعبد العزيز خزعل على</t>
+          <t>مريم محمد فوزى محمد سالم</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -72471,7 +72471,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>211543@med.asu.edu.eg</t>
+          <t>211537@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -72508,12 +72508,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>211544</t>
+          <t>211541</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>منه الله رزق زينهم رزق ابو جميله</t>
+          <t>بسمله محمد احمد حامد</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -72528,7 +72528,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>211544@med.asu.edu.eg</t>
+          <t>211541@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -72565,12 +72565,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>211545</t>
+          <t>211542</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>يوسف حمدى الفهمى محمد</t>
+          <t>رويدا محمد عبد الهادى محمود غازى</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -72585,7 +72585,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>211545@med.asu.edu.eg</t>
+          <t>211542@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -72622,12 +72622,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>211546</t>
+          <t>211543</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>محمود محمد شفيق خضرى محمد</t>
+          <t>عبد العزيز بهاءعبد العزيز خزعل على</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -72642,7 +72642,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>211546@med.asu.edu.eg</t>
+          <t>211543@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -72679,12 +72679,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>211547</t>
+          <t>211544</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>كمال ماهر كمال ابراهيم</t>
+          <t>منه الله رزق زينهم رزق ابو جميله</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -72699,7 +72699,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>211547@med.asu.edu.eg</t>
+          <t>211544@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -72736,12 +72736,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>211548</t>
+          <t>211545</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ايسن ابراهيم عبد الله ابراهيم عبد الفتاح</t>
+          <t>يوسف حمدى الفهمى محمد</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -72756,7 +72756,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>211548@med.asu.edu.eg</t>
+          <t>211545@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -72793,12 +72793,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>211549</t>
+          <t>211546</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>مريم احمد مصطفى الجندى</t>
+          <t>محمود محمد شفيق خضرى محمد</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -72813,7 +72813,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>211549@med.asu.edu.eg</t>
+          <t>211546@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -72850,12 +72850,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>211550</t>
+          <t>211547</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>محمد هشام سيد عبد الوهاب</t>
+          <t>كمال ماهر كمال ابراهيم</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -72870,7 +72870,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>211550@med.asu.edu.eg</t>
+          <t>211547@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -72907,12 +72907,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>211551</t>
+          <t>211548</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>رؤى عبد التواب عبد الحميد عبد القادر</t>
+          <t>ايسن ابراهيم عبد الله ابراهيم عبد الفتاح</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -72927,7 +72927,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>211551@med.asu.edu.eg</t>
+          <t>211548@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -72964,12 +72964,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>211552</t>
+          <t>211549</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>احمد سامى محمود عبد الغفار</t>
+          <t>مريم احمد مصطفى الجندى</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -72984,7 +72984,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>211552@med.asu.edu.eg</t>
+          <t>211549@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -73021,12 +73021,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>211555</t>
+          <t>211550</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>شهد احمد مصطفى عزالدين البخشونجى</t>
+          <t>محمد هشام سيد عبد الوهاب</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -73041,7 +73041,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>211555@med.asu.edu.eg</t>
+          <t>211550@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -73078,12 +73078,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>211556</t>
+          <t>211551</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>عمر محمد عباس حسن صوان</t>
+          <t>رؤى عبد التواب عبد الحميد عبد القادر</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -73098,7 +73098,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>211556@med.asu.edu.eg</t>
+          <t>211551@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -73135,12 +73135,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>211566</t>
+          <t>211552</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Ranim Abdulmonem Alabbas</t>
+          <t>احمد سامى محمود عبد الغفار</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -73155,7 +73155,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>211566@med.asu.edu.eg</t>
+          <t>211552@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -73192,12 +73192,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>211570</t>
+          <t>211555</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Mohammed Raed Ahmad Swailem</t>
+          <t>شهد احمد مصطفى عزالدين البخشونجى</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -73212,7 +73212,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>211570@med.asu.edu.eg</t>
+          <t>211555@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -73249,12 +73249,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>211571</t>
+          <t>211556</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>عبدالله محمد كامل غريواتي</t>
+          <t>عمر محمد عباس حسن صوان</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -73269,7 +73269,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>211571@med.asu.edu.eg</t>
+          <t>211556@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -73306,12 +73306,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>211574</t>
+          <t>211566</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>يحيى زكريا مصطفى السقا</t>
+          <t>Ranim Abdulmonem Alabbas</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -73326,7 +73326,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>211574@med.asu.edu.eg</t>
+          <t>211566@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -73363,12 +73363,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>211576</t>
+          <t>211570</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Alhakem Ahmed Yahya Yusr</t>
+          <t>Mohammed Raed Ahmad Swailem</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -73383,7 +73383,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>211576@med.asu.edu.eg</t>
+          <t>211570@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -73420,12 +73420,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>211583</t>
+          <t>211571</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Abdulwahab Gamil Abdo Hadish</t>
+          <t>عبدالله محمد كامل غريواتي</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -73440,7 +73440,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>211583@med.asu.edu.eg</t>
+          <t>211571@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -73477,12 +73477,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>211584</t>
+          <t>211574</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>احمد عبدالرحيم عمر بن قاضي</t>
+          <t>يحيى زكريا مصطفى السقا</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -73497,7 +73497,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>211584@med.asu.edu.eg</t>
+          <t>211574@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -73534,12 +73534,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>211587</t>
+          <t>211576</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>عبد الله يوسف محمد الدهام</t>
+          <t>Alhakem Ahmed Yahya Yusr</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -73554,7 +73554,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>211587@med.asu.edu.eg</t>
+          <t>211576@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -73591,12 +73591,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>211591</t>
+          <t>211583</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Shoroag Hussein Hassan</t>
+          <t>Abdulwahab Gamil Abdo Hadish</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -73611,7 +73611,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>211591@med.asu.edu.eg</t>
+          <t>211583@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -73648,12 +73648,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>211541</t>
+          <t>211584</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>بسمله محمد احمد حامد</t>
+          <t>احمد عبدالرحيم عمر بن قاضي</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -73668,7 +73668,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>211541@med.asu.edu.eg</t>
+          <t>211584@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -73678,7 +73678,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -73688,12 +73688,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>12:51:48</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -73705,12 +73705,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>211535</t>
+          <t>211587</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>احمد ركان محمد رشاد سليمان</t>
+          <t>عبد الله يوسف محمد الدهام</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -73725,7 +73725,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>211535@med.asu.edu.eg</t>
+          <t>211587@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -73735,7 +73735,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -73745,12 +73745,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>12:52:01</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -73762,12 +73762,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>211543</t>
+          <t>211591</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>عبد العزيز بهاءعبد العزيز خزعل على</t>
+          <t>Shoroag Hussein Hassan</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -73782,7 +73782,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>211543@med.asu.edu.eg</t>
+          <t>211591@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -73792,7 +73792,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -73802,12 +73802,12 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>12:52:03</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -73819,12 +73819,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>211551</t>
+          <t>211541</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>رؤى عبد التواب عبد الحميد عبد القادر</t>
+          <t>بسمله محمد احمد حامد</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -73839,7 +73839,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>211551@med.asu.edu.eg</t>
+          <t>211541@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -73864,7 +73864,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>12:52:35</t>
+          <t>12:51:48</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -73876,12 +73876,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>211550</t>
+          <t>211535</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>محمد هشام سيد عبد الوهاب</t>
+          <t>احمد ركان محمد رشاد سليمان</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -73896,7 +73896,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>211550@med.asu.edu.eg</t>
+          <t>211535@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -73921,7 +73921,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>12:53:04</t>
+          <t>12:52:01</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -73933,12 +73933,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>211542</t>
+          <t>211543</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>رويدا محمد عبد الهادى محمود غازى</t>
+          <t>عبد العزيز بهاءعبد العزيز خزعل على</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -73953,7 +73953,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>211542@med.asu.edu.eg</t>
+          <t>211543@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -73978,7 +73978,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>12:53:10</t>
+          <t>12:52:03</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -73990,12 +73990,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>211555</t>
+          <t>211551</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>شهد احمد مصطفى عزالدين البخشونجى</t>
+          <t>رؤى عبد التواب عبد الحميد عبد القادر</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -74010,7 +74010,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>211555@med.asu.edu.eg</t>
+          <t>211551@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -74035,7 +74035,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>12:53:33</t>
+          <t>12:52:35</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -74047,12 +74047,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>211549</t>
+          <t>211550</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>مريم احمد مصطفى الجندى</t>
+          <t>محمد هشام سيد عبد الوهاب</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -74067,7 +74067,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>211549@med.asu.edu.eg</t>
+          <t>211550@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -74092,7 +74092,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>12:54:59</t>
+          <t>12:53:04</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -74104,12 +74104,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>211583</t>
+          <t>211542</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Abdulwahab Gamil Abdo Hadish</t>
+          <t>رويدا محمد عبد الهادى محمود غازى</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -74124,7 +74124,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>211583@med.asu.edu.eg</t>
+          <t>211542@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -74149,7 +74149,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>12:55:02</t>
+          <t>12:53:10</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -74161,12 +74161,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>211545</t>
+          <t>211555</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>يوسف حمدى الفهمى محمد</t>
+          <t>شهد احمد مصطفى عزالدين البخشونجى</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -74181,7 +74181,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>211545@med.asu.edu.eg</t>
+          <t>211555@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -74206,7 +74206,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>12:55:24</t>
+          <t>12:53:33</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -74218,12 +74218,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>211591</t>
+          <t>211549</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Shoroag Hussein Hassan</t>
+          <t>مريم احمد مصطفى الجندى</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -74238,7 +74238,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>211591@med.asu.edu.eg</t>
+          <t>211549@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -74263,7 +74263,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>12:56:02</t>
+          <t>12:54:59</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -74275,12 +74275,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>211576</t>
+          <t>211583</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Alhakem Ahmed Yahya Yusr</t>
+          <t>Abdulwahab Gamil Abdo Hadish</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -74295,7 +74295,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>211576@med.asu.edu.eg</t>
+          <t>211583@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -74320,7 +74320,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>12:56:05</t>
+          <t>12:55:02</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -74332,12 +74332,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>211571</t>
+          <t>211545</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>عبدالله محمد كامل غريواتي</t>
+          <t>يوسف حمدى الفهمى محمد</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -74352,7 +74352,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>211571@med.asu.edu.eg</t>
+          <t>211545@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -74377,7 +74377,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>12:56:45</t>
+          <t>12:55:24</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -74389,12 +74389,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>211587</t>
+          <t>211591</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>عبد الله يوسف محمد الدهام</t>
+          <t>Shoroag Hussein Hassan</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -74409,7 +74409,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>211587@med.asu.edu.eg</t>
+          <t>211591@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -74434,7 +74434,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>13:04:23</t>
+          <t>12:56:02</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -74446,12 +74446,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>211574</t>
+          <t>211576</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>يحيى زكريا مصطفى السقا</t>
+          <t>Alhakem Ahmed Yahya Yusr</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -74466,7 +74466,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>211574@med.asu.edu.eg</t>
+          <t>211576@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -74491,7 +74491,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>13:05:10</t>
+          <t>12:56:05</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -74503,12 +74503,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>211544</t>
+          <t>211571</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>منه الله رزق زينهم رزق ابو جميله</t>
+          <t>عبدالله محمد كامل غريواتي</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -74523,7 +74523,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>211544@med.asu.edu.eg</t>
+          <t>211571@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -74548,7 +74548,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>13:09:09</t>
+          <t>12:56:45</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -74560,12 +74560,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>211548</t>
+          <t>211587</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ايسن ابراهيم عبد الله ابراهيم عبد الفتاح</t>
+          <t>عبد الله يوسف محمد الدهام</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -74580,7 +74580,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>211548@med.asu.edu.eg</t>
+          <t>211587@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -74605,7 +74605,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>13:10:29</t>
+          <t>13:04:23</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -74617,12 +74617,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>211566</t>
+          <t>211574</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ranim Abdulmonem Alabbas</t>
+          <t>يحيى زكريا مصطفى السقا</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -74637,7 +74637,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>211566@med.asu.edu.eg</t>
+          <t>211574@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -74662,7 +74662,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>13:12:40</t>
+          <t>13:05:10</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -74674,12 +74674,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>211537</t>
+          <t>211544</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>مريم محمد فوزى محمد سالم</t>
+          <t>منه الله رزق زينهم رزق ابو جميله</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -74694,7 +74694,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>211537@med.asu.edu.eg</t>
+          <t>211544@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -74719,7 +74719,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>13:14:02</t>
+          <t>13:09:09</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -74731,12 +74731,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>211556</t>
+          <t>211548</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>عمر محمد عباس حسن صوان</t>
+          <t>ايسن ابراهيم عبد الله ابراهيم عبد الفتاح</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -74751,7 +74751,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>211556@med.asu.edu.eg</t>
+          <t>211548@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -74776,7 +74776,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>13:14:33</t>
+          <t>13:10:29</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -74788,12 +74788,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>211552</t>
+          <t>211566</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>احمد سامى محمود عبد الغفار</t>
+          <t>Ranim Abdulmonem Alabbas</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -74808,7 +74808,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>211552@med.asu.edu.eg</t>
+          <t>211566@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -74833,7 +74833,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>13:15:14</t>
+          <t>13:12:40</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -74845,62 +74845,233 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
+          <t>211537</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>مريم محمد فوزى محمد سالم</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>211537@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>13:14:02</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>211556</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>عمر محمد عباس حسن صوان</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>211556@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>13:14:33</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>211552</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>احمد سامى محمود عبد الغفار</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>211552@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>13:15:14</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
           <t>211547</t>
         </is>
       </c>
-      <c r="B481" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>كمال ماهر كمال ابراهيم</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr">
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
-      <c r="E481" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>211547@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="G481" t="inlineStr">
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>GENERAL SURGERY</t>
-        </is>
-      </c>
-      <c r="I481" t="inlineStr">
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
         <is>
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="J481" t="inlineStr">
+      <c r="J484" t="inlineStr">
         <is>
           <t>13:26:56</t>
         </is>
       </c>
-      <c r="K481" t="inlineStr">
+      <c r="K484" t="inlineStr">
         <is>
           <t>B1-6</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K481"/>
+  <autoFilter ref="A1:K484"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_attendance.xlsx
+++ b/attendance_reports/Y5_B2526_General_&_Special_Surgery_2_B1_attendance.xlsx
@@ -53973,7 +53973,7 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
@@ -54041,7 +54041,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54073,7 +54073,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54105,7 +54105,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54137,7 +54137,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54169,7 +54169,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54201,7 +54201,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54233,7 +54233,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54265,7 +54265,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54297,7 +54297,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54329,7 +54329,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54361,7 +54361,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54393,7 +54393,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54425,7 +54425,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54457,7 +54457,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54489,7 +54489,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54521,7 +54521,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54553,7 +54553,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54585,7 +54585,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54617,7 +54617,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54649,7 +54649,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54681,7 +54681,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54713,7 +54713,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54745,7 +54745,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54777,7 +54777,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54809,7 +54809,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54841,7 +54841,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54873,7 +54873,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54905,7 +54905,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54937,7 +54937,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -54969,7 +54969,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55001,7 +55001,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55033,7 +55033,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55065,7 +55065,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55097,7 +55097,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55129,7 +55129,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55161,7 +55161,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55193,7 +55193,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55225,7 +55225,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55257,7 +55257,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55289,7 +55289,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55321,7 +55321,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55353,7 +55353,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55385,7 +55385,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55417,7 +55417,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55449,7 +55449,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55481,7 +55481,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55513,7 +55513,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55545,7 +55545,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55577,7 +55577,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55609,7 +55609,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55641,7 +55641,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55673,7 +55673,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55705,7 +55705,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55737,7 +55737,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55769,7 +55769,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55801,7 +55801,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55833,7 +55833,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55865,7 +55865,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55897,7 +55897,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55929,7 +55929,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55961,7 +55961,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -55993,7 +55993,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56025,7 +56025,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56057,7 +56057,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56089,7 +56089,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56121,7 +56121,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56153,7 +56153,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56185,7 +56185,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56217,7 +56217,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56249,7 +56249,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56281,7 +56281,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56313,7 +56313,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56345,7 +56345,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56377,7 +56377,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56409,7 +56409,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56441,7 +56441,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56473,7 +56473,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56505,7 +56505,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56537,7 +56537,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56569,7 +56569,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
@@ -56601,7 +56601,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>New Transfer</t>
+          <t>Previous Transfer</t>
         </is>
       </c>
     </row>
